--- a/Luban/Source/Modules/Gameplay/Actor.xlsx
+++ b/Luban/Source/Modules/Gameplay/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\DemoQ\Luban\Source\Modules\Gameplay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208A711D-5F43-47C0-B82B-F27A9D9E5E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802597C8-AA9E-4D9E-AF6B-E817438380CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="1730" windowWidth="19200" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -940,10 +940,10 @@
         <v>44</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J10" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -969,10 +969,10 @@
         <v>45</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">

--- a/Luban/Source/Modules/Gameplay/Actor.xlsx
+++ b/Luban/Source/Modules/Gameplay/Actor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\DemoQ\Luban\Source\Modules\Gameplay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802597C8-AA9E-4D9E-AF6B-E817438380CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B4C69F-DB0D-49A2-9007-F08CF01A2AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1730" windowWidth="19200" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1280" windowWidth="22590" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,10 @@
   </si>
   <si>
     <t>10101|10102|10103|10104|10105|10106|10107|10108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空位(for外键检查)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,16 +654,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
-    <col min="2" max="4" width="12.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.9140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="5" customWidth="1"/>
     <col min="5" max="6" width="11.83203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="48" style="5" customWidth="1"/>
@@ -774,262 +780,270 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="5">
-        <v>300</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="5">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F6" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="5">
         <v>150</v>
       </c>
       <c r="F7" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F8" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F9" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="5">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F10" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J10" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F11" s="5">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J11" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="5">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="F12" s="5">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J12" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>202</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="5">
         <v>100</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F14" s="5">
         <v>15</v>
       </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
         <v>20201</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J14" s="5">
         <v>2</v>
       </c>
     </row>
